--- a/medicine/Pharmacie/Nicolas_de_Salerne/Nicolas_de_Salerne.xlsx
+++ b/medicine/Pharmacie/Nicolas_de_Salerne/Nicolas_de_Salerne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Niccolò Salernitano (en français Nicolas de Salerne, en latin Nicolas Prœpositus) fut directeur de l'École de médecine de Salerne vers 1150. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas de Salerne est probablement l'auteur du Qui pro quo de l'Antidotarium parvum de 140 formules, qui fit autorité comme Codex sous Louis IX et pendant plusieurs siècles, et d'un Dispensatorium, première des pharmacopées de type moderne avec composition et propriétés des préparations destinées à des usages pratiques. 
 Il était autrefois souvent confondu avec Nicolas d'Alexandrie (Sprengel, Hist. med.) et avec Nicolas Praepositus, médecin à Tours au XVe siècle (La Pharmacopée de Bauderon de Brice Bauderon, « avis au lecteur »).
